--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/uniform_contra.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/uniform_contra.xlsx
@@ -27,7 +27,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
   </si>
   <si>
     <t>arg203444</t>
@@ -36,19 +36,19 @@
     <t>arg251309</t>
   </si>
   <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
   </si>
   <si>
     <t>arg352482</t>
   </si>
   <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
   </si>
   <si>
     <t>arg199549</t>
   </si>
   <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
   </si>
   <si>
     <t>arg233332</t>
@@ -57,7 +57,7 @@
     <t>arg252467</t>
   </si>
   <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg231770</t>
@@ -66,25 +66,25 @@
     <t>arg198939</t>
   </si>
   <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
   </si>
   <si>
     <t>arg238471</t>
   </si>
   <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
   </si>
   <si>
     <t>arg205531</t>
   </si>
   <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
   </si>
   <si>
     <t>arg386882</t>
@@ -93,7 +93,7 @@
     <t>arg198926</t>
   </si>
   <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>arg200706</t>
@@ -102,34 +102,34 @@
     <t>arg339127</t>
   </si>
   <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
   </si>
   <si>
     <t>arg251373</t>
   </si>
   <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
   </si>
   <si>
     <t>arg287477</t>
   </si>
   <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
   </si>
   <si>
     <t>arg554188</t>
   </si>
   <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
   </si>
   <si>
     <t>arg284049</t>
   </si>
   <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
   </si>
   <si>
     <t>arg238473</t>
@@ -138,76 +138,76 @@
     <t>arg199159</t>
   </si>
   <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
   </si>
   <si>
     <t>arg203931</t>
   </si>
   <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
   </si>
   <si>
     <t>arg198306</t>
   </si>
   <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
   </si>
   <si>
     <t>arg199550</t>
   </si>
   <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
   </si>
   <si>
     <t>arg198296</t>
   </si>
   <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
   </si>
   <si>
     <t>arg202425</t>
   </si>
   <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
   </si>
   <si>
     <t>arg238468</t>
   </si>
   <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
   </si>
   <si>
     <t>arg580099</t>
   </si>
   <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
   </si>
   <si>
     <t>arg237112</t>
@@ -216,1231 +216,1231 @@
     <t>arg202290</t>
   </si>
   <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
   </si>
   <si>
     <t>arg336277</t>
   </si>
   <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
   </si>
   <si>
     <t>arg251644</t>
   </si>
   <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
   </si>
   <si>
     <t>arg207279</t>
   </si>
   <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
   </si>
   <si>
     <t>arg283557</t>
   </si>
   <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>288,0.0,17.84,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.09,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,149,0.33,10.97,0.0,0.04,1.67,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0,65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,9.66,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>499,0.25,18.0,0.0,0.01,1.0,0.0,0.01,0.0,0.25,0.3,0.3,0.09,0.17,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>632,0.33,15.31,0.0,0.0,1.0,0.0,0.01,0.0,0.45,0.6,0.6,0.18,0.17,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,144,0.0,16.95,0.0,0.05,1.0,0.0,0.0,0.0,0.15,0.15,0.2,0.09,0.17</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,199,0.5,16.01,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>97,0.0,4.22,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,101,1.0,12.66,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>223,0.0,16.85,0.0,0.0,3.0,0.0,0.22,0.0,0.1,0.2,0.2,0.0,0.0,249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0</t>
-  </si>
-  <si>
-    <t>99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,71,0.0,7.69,0.0,0.07,1.0,0.0,0.07,0.0,0.2,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0,119,0.0,14.52,0.0,0.05,8.0,0.0,0.05,0.0,0.05,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0,110,0.0,10.37,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0,74,0.0,8.07,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>85,1.0,9.99,0.0,0.22,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,99,1.0,12.66,0.0,0.21,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>73,0.0,14.49,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.0,0.0,361,0.4,15.15,0.0,0.05,2.6,0.0,0.0,0.0,0.25,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,361,0.0,15.52,0.0,0.15,4.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,17.7,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,110,0.0,14.47,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.09,0.17</t>
-  </si>
-  <si>
-    <t>156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0,219,0.25,10.85,1.0,0.02,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>70,0.0,15.54,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17</t>
-  </si>
-  <si>
-    <t>249,0.0,14.49,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.4,0.4,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>187,0.25,9.13,0.0,0.08,1.5,0.0,0.06,0.0,0.15,0.25,0.25,0.0,0.0,140,1.0,13.59,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.3,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0,147,2.0,12.78,2.0,0.0,1.0,0.0,0.17,0.0,0.15,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>66,0.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0,264,0.2,10.93,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.4,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>566,0.38,14.72,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.3,0.18,0.17,213,0.0,15.29,0.0,0.05,0.5,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>342,0.33,18.4,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.25,0.25,0.0,0.0,257,0.67,15.68,0.0,0.02,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.09,0.0</t>
-  </si>
-  <si>
-    <t>65,0.0,11.32,0.0,0.08,0.0,0.0,0.0,0.0,0.05,0.1,0.15,0.0,0.0,156,1.0,9.39,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>15.67,6.13,1.32,1.36,0.97,0.0,17.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.06,0.15,0.02,0.02,0.09,0.06,0.1,0.0,0.0,5.14,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13</t>
+  </si>
+  <si>
+    <t>9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29,14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33,9.33,5.32,0.79,1.36,0.58,0.33,10.97,0.0,0.04,1.67,0,0,0.0,0.0,0.0,0.18,0.04,0.25,0.11,0.11,0.07,0.04,0.05,0.0,0.0,7.29</t>
+  </si>
+  <si>
+    <t>19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29,13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2</t>
+  </si>
+  <si>
+    <t>10.5,4.95,0.59,0.91,0.65,0.0,9.66,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.1,0.14,0.0,0.0,0.05,0.0,0.0,0.0,0.0,8.57,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>20.5,6.09,2.31,1.81,1.27,0.25,18.0,0.0,0.01,1.0,4,0,0.0,0.01,0.0,0.27,0.05,0.22,0.07,0.07,0.06,0.02,0.05,0.17,0.17,6.46,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>18.33,5.75,3.1,2.72,1.14,0.33,15.31,0.0,0.0,1.0,1,0,0.0,0.01,0.0,0.23,0.08,0.25,0.05,0.05,0.09,0.02,0.05,0.17,0.17,6.18,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,24.0,6.0,0.68,0.45,1.49,0.0,16.95,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.25,0.13,0.17,0.0,0.0,0.04,0.08,0.0,0.17,0.17,6.33</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,17.0,5.85,0.96,0.91,1.06,0.5,16.01,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.18,0.09,0.15,0.09,0.09,0.15,0.06,0.05,0.0,0.0,9.2</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>7.67,4.22,0.65,1.36,0.48,0.0,4.22,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.22,0.0,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,10.71,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,19.0,5.32,0.53,0.45,1.18,1.0,12.66,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.11,0.11,0.37,0.0,0.0,0.05,0.0,0.0,0.0,0.0,5.71</t>
+  </si>
+  <si>
+    <t>18.5,6.03,1.04,0.91,1.15,0.0,16.85,0.0,0.0,3.0,0,0,0.0,0.22,0.0,0.24,0.11,0.19,0.03,0.03,0.03,0.03,0.05,0.0,0.0,10.15,23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15</t>
+  </si>
+  <si>
+    <t>19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,7.0,5.07,0.39,0.91,0.43,0.0,7.69,0.0,0.07,1.0,0,0,0.0,0.07,0.0,0.36,0.07,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,14.29</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4,21.0,5.67,0.59,0.45,1.3,0.0,14.52,0.0,0.05,8.0,0,0,0.0,0.05,0.0,0.1,0.05,0.29,0.0,0.0,0.1,0.0,0.0,0.0,0.0,13.2</t>
+  </si>
+  <si>
+    <t>11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24,11.0,5.0,0.62,0.91,0.68,0.0,10.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.09,0.23,0.0,0.0,0.09,0.05,0.05,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5,16.0,4.63,0.45,0.45,0.99,0.0,8.07,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.25,0.0,0.0,0.13,0.0,0.0,0.0,0.0,10.4</t>
+  </si>
+  <si>
+    <t>65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>18.0,4.72,0.51,0.45,1.12,1.0,9.99,0.0,0.22,1.0,0,0,0.0,0.0,0.0,0.17,0.28,0.28,0.06,0.06,0.0,0.0,0.0,0.0,0.0,1.86,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,19.0,5.21,0.53,0.45,1.18,1.0,12.66,0.0,0.21,1.0,0,0,0.0,0.0,0.0,0.26,0.11,0.21,0.0,0.0,0.21,0.0,0.0,0.0,0.0,9.5</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.37,0.45,0.81,0.0,14.49,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.38,0.15,0.08,0.0,0.0,0.0,0.0,0.0,0.0,0.0,12.13,11.8,6.12,1.66,2.27,0.73,0.4,15.15,0.0,0.05,2.6,0,0,0.0,0.0,0.0,0.29,0.1,0.2,0.07,0.07,0.02,0.03,0.05,0.0,0.0,6.24</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,65.0,5.55,1.83,0.45,4.04,0.0,15.52,0.0,0.15,4.0,2,0,0.0,0.0,0.0,0.18,0.11,0.2,0.08,0.08,0.09,0.03,0.1,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>10.0,6.6,0.28,0.45,0.62,0.0,17.7,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.0,0.3,0.0,0.0,0.2,0.2,0.0,0.0,0.0,4.6,20.0,5.5,0.56,0.45,1.24,0.0,14.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.2,0.15,0.05,0.05,0.0,0.05,0.05,0.17,0.17,9.56</t>
+  </si>
+  <si>
+    <t>35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18,10.75,5.09,1.21,1.81,0.67,0.25,10.85,1.0,0.02,1.0,0,0,0.0,0.0,0.0,0.19,0.09,0.26,0.07,0.07,0.12,0.0,0.0,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>12.0,5.83,0.34,0.45,0.75,0.0,15.54,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.25,0.0,0.0,0.17,0.0,0.0,0.0,0.0,13.4,12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14</t>
+  </si>
+  <si>
+    <t>23.0,5.41,1.29,0.91,1.43,0.0,14.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.2,0.09,0.2,0.04,0.04,0.04,0.0,0.0,0.0,0.0,11.15,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>9.0,5.19,1.01,1.81,0.56,0.25,9.13,0.0,0.08,1.5,0,0,0.0,0.06,0.0,0.25,0.03,0.22,0.11,0.11,0.11,0.0,0.0,0.0,0.0,10.0,26.0,5.38,0.73,0.45,1.61,1.0,13.59,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.15,0.12,0.27,0.08,0.08,0.23,0.0,0.0,0.0,0.0,15.0</t>
+  </si>
+  <si>
+    <t>10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5,29.0,5.07,0.82,0.45,1.8,2.0,12.78,2.0,0.0,1.0,0,0,0.0,0.17,0.0,0.14,0.14,0.1,0.07,0.07,0.07,0.0,0.0,0.0,0.0,8.4</t>
+  </si>
+  <si>
+    <t>14.0,4.71,0.39,0.45,0.87,0.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.14,0.07,0.07,0.14,0.07,0.0,0.0,0.0,1.5,10.2,5.18,1.44,2.27,0.63,0.2,10.93,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.04,0.24,0.06,0.06,0.12,0.06,0.1,0.0,0.0,10.5</t>
+  </si>
+  <si>
+    <t>12.38,5.72,2.79,3.63,0.77,0.38,14.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.14,0.17,0.03,0.03,0.09,0.02,0.05,0.17,0.17,6.14,19.0,5.61,1.07,0.91,1.18,0.0,15.29,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.18,0.11,0.37,0.05,0.05,0.05,0.0,0.0,0.0,0.0,13.88</t>
+  </si>
+  <si>
+    <t>18.33,6.22,1.55,1.36,1.14,0.33,18.4,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.15,0.2,0.04,0.04,0.04,0.11,0.2,0.0,0.0,6.84,14.67,5.84,1.24,1.36,0.91,0.67,15.68,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.18,0.07,0.25,0.16,0.16,0.07,0.05,0.05,0.0,0.0,10.57</t>
+  </si>
+  <si>
+    <t>13.0,5.0,0.37,0.45,0.81,0.0,11.32,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.38,0.08,0.31,0.15,0.15,0.15,0.08,0.0,0.0,0.0,3.2,35.0,4.46,0.99,0.45,2.17,1.0,9.39,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.06,0.14,0.03,0.03,0.11,0.0,0.0,0.0,0.0,8.18</t>
   </si>
 </sst>
 </file>
